--- a/public/templates/transaction_template.xlsx
+++ b/public/templates/transaction_template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>币种</t>
   </si>
@@ -44,6 +44,9 @@
     <t>user1</t>
   </si>
   <si>
+    <t>CH001</t>
+  </si>
+  <si>
     <t>渠道1</t>
   </si>
   <si>
@@ -59,10 +62,64 @@
     <t>user3</t>
   </si>
   <si>
+    <t>CH002</t>
+  </si>
+  <si>
     <t>渠道2</t>
   </si>
   <si>
     <t>2025-03-25 15:20:00</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>user4</t>
+  </si>
+  <si>
+    <t>CH003</t>
+  </si>
+  <si>
+    <t>渠道3</t>
+  </si>
+  <si>
+    <t>2025-03-25 09:15:00</t>
+  </si>
+  <si>
+    <t>user5</t>
+  </si>
+  <si>
+    <t>2025-03-25 14:45:00</t>
+  </si>
+  <si>
+    <t>user6</t>
+  </si>
+  <si>
+    <t>2025-03-25 16:30:00</t>
+  </si>
+  <si>
+    <t>user7</t>
+  </si>
+  <si>
+    <t>2025-03-25 17:20:00</t>
+  </si>
+  <si>
+    <t>user8</t>
+  </si>
+  <si>
+    <t>2025-03-25 18:10:00</t>
+  </si>
+  <si>
+    <t>user9</t>
+  </si>
+  <si>
+    <t>2025-03-25 19:05:00</t>
+  </si>
+  <si>
+    <t>user10</t>
+  </si>
+  <si>
+    <t>2025-03-25 20:00:00</t>
   </si>
 </sst>
 </file>
@@ -402,7 +459,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,12 +509,14 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2"/>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <v>1000</v>
@@ -471,14 +530,16 @@
         <v>12346</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3"/>
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3">
         <v>500</v>
@@ -492,17 +553,180 @@
         <v>12347</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4"/>
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>1500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>12348</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>12349</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>12350</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>12351</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>12352</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>12353</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>12354</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
